--- a/medicine/Psychotrope/Eder_&_Heylands_Brauerei/Eder_&_Heylands_Brauerei.xlsx
+++ b/medicine/Psychotrope/Eder_&_Heylands_Brauerei/Eder_&_Heylands_Brauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eder_%26_Heylands_Brauerei</t>
+          <t>Eder_&amp;_Heylands_Brauerei</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Eder &amp; Heylands Brauerei est une brasserie à Großostheim, dans le Land de Bavière.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eder_%26_Heylands_Brauerei</t>
+          <t>Eder_&amp;_Heylands_Brauerei</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie Eder est mentionnée par écrit pour la première fois en 1779[2].
-En 1979, la Schwanenbrauerei, brasserie de Großostheim, est intégrée à l'entreprise. En 1983 la brasserie historique d'Aschaffenbourg Bavaria rejoint l'entreprise. En 1991, la Schlossbrauerei zu Thüngen est ajoutée. En 1998, la brasserie Eder et la brasserie Heylands fusionnent pour former la nouvelle brasserie Eder &amp; Heylands[2].
-La brasserie propose des bières des marques Eder’s, Bavaria, Heylands et Schlappeseppel[2].
-En avril 2023, la Pfungstädter Brauerei Hildebrand, brasserie à Pfungstadt, dans le Land de Hesse, à environ 45 kilomètres de Großostheim, confie une partie de sa production à Eder &amp; Heylands Brauerei[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie Eder est mentionnée par écrit pour la première fois en 1779.
+En 1979, la Schwanenbrauerei, brasserie de Großostheim, est intégrée à l'entreprise. En 1983 la brasserie historique d'Aschaffenbourg Bavaria rejoint l'entreprise. En 1991, la Schlossbrauerei zu Thüngen est ajoutée. En 1998, la brasserie Eder et la brasserie Heylands fusionnent pour former la nouvelle brasserie Eder &amp; Heylands.
+La brasserie propose des bières des marques Eder’s, Bavaria, Heylands et Schlappeseppel.
+En avril 2023, la Pfungstädter Brauerei Hildebrand, brasserie à Pfungstadt, dans le Land de Hesse, à environ 45 kilomètres de Großostheim, confie une partie de sa production à Eder &amp; Heylands Brauerei.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eder_%26_Heylands_Brauerei</t>
+          <t>Eder_&amp;_Heylands_Brauerei</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eder’s
 Eder’s Pilsener
@@ -558,9 +574,43 @@
 Heylands Export
 Heylands Pilsener
 Brown Shuga, mélange de bière composé à 50 % d'export et à 50 % de cola, contenant de la caféine
-Heylands Radler
-Schlappeseppel
-La brasserie Schlappeseppel est fondée en 1803. L'histoire souvent répandue (également sur l'étiquette arrière de la bouteille de bière Schlappeseppel-Export) selon laquelle la brasserie aurait été fondée par un soldat en 1631 dest une légende[4].
+Heylands Radler</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eder_&amp;_Heylands_Brauerei</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eder_%26_Heylands_Brauerei</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Schlappeseppel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La brasserie Schlappeseppel est fondée en 1803. L'histoire souvent répandue (également sur l'étiquette arrière de la bouteille de bière Schlappeseppel-Export) selon laquelle la brasserie aurait été fondée par un soldat en 1631 dest une légende.
 Eder &amp; Heylands Brauerei
 Export
 Pils (avec et sans alcool)
